--- a/Templates/Шаблон для загрузки оргструктуры в DirectumRX.xlsx
+++ b/Templates/Шаблон для загрузки оргструктуры в DirectumRX.xlsx
@@ -1,38 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkDirectum\Tasks\old\TemplatesForMain\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="НашиОрганизации" sheetId="7" r:id="rId1"/>
-    <x:sheet name="Подразделения" sheetId="6" r:id="rId2"/>
-    <x:sheet name="Сотрудники" sheetId="4" r:id="rId3"/>
-  </x:sheets>
-  <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">НашиОрганизации!$A$1:$W$3</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Подразделения!$A$1:$K$8</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Сотрудники!$B$1:$W$14</x:definedName>
-  </x:definedNames>
-  <x:calcPr calcId="152511" refMode="R1C1"/>
-</x:workbook>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD11F92A-D322-4BF4-9D6F-FEB59457D1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="НашиОрганизации" sheetId="7" r:id="rId1"/>
+    <sheet name="Подразделения" sheetId="6" r:id="rId2"/>
+    <sheet name="Сотрудники" sheetId="4" r:id="rId3"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">НашиОрганизации!$A$1:$X$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Подразделения!$A$1:$L$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Сотрудники!$B$1:$X$14</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
+</workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Попова Елена  (Popova_EI)</author>
     <author>Зорина Елена (Zorina_EV)</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -218,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -251,12 +252,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Зорина Елена (Zorina_EV)</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -327,14 +328,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Зорина Елена (Zorina_EV)</author>
     <author>Токмурзин Павел  (Tokmurzin_PV)</author>
     <author>Попова Елена  (Popova_EI)</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -348,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -362,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -376,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -392,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="2" shapeId="0">
+    <comment ref="H1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -406,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="2" shapeId="0">
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -420,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0">
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="2" shapeId="0">
+    <comment ref="L1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -448,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="2" shapeId="0">
+    <comment ref="P1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -463,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -478,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -497,180 +498,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
-  <x:si>
-    <x:t>ИНН</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Населенный пункт</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Примечание</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Регион</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Телефоны</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сайт</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Эл. почта</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Фамилия</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Имя</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отчество</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дата рождения</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Пол</x:t>
-  </x:si>
-  <x:si>
-    <x:t>СНИЛС</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Адрес регистрации</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Наименование</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Головная орг.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>КПП</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ОГРН</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ОКПО</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ОКВЭД</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Юридический адрес</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Почтовый адрес</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Номер счета</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Банк</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Руководитель</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Код</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Наша организация</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Телефон</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подразделение</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Должность</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Эл.почта</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Краткое наименование</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Юрид. наименование</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Головное подразделение</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Рабочий телефон</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дата</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подробности</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Нерезидент</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Рога и Копыта</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Бухгалтерия</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Бухгалтер</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Рогов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Василий</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rogovv@comp.ru</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Загружен</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.02.2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>Мстители</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ООО "MARVEL Inc."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ironman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Старков</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Антон</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Говардович</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ironman@avengers.us</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19.02.2025</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+  <si>
+    <t>ИНН</t>
+  </si>
+  <si>
+    <t>Населенный пункт</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Регион</t>
+  </si>
+  <si>
+    <t>Телефоны</t>
+  </si>
+  <si>
+    <t>Сайт</t>
+  </si>
+  <si>
+    <t>Эл. почта</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Дата рождения</t>
+  </si>
+  <si>
+    <t>Пол</t>
+  </si>
+  <si>
+    <t>СНИЛС</t>
+  </si>
+  <si>
+    <t>Адрес регистрации</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Головная орг.</t>
+  </si>
+  <si>
+    <t>КПП</t>
+  </si>
+  <si>
+    <t>ОГРН</t>
+  </si>
+  <si>
+    <t>ОКПО</t>
+  </si>
+  <si>
+    <t>ОКВЭД</t>
+  </si>
+  <si>
+    <t>Юридический адрес</t>
+  </si>
+  <si>
+    <t>Почтовый адрес</t>
+  </si>
+  <si>
+    <t>Номер счета</t>
+  </si>
+  <si>
+    <t>Банк</t>
+  </si>
+  <si>
+    <t>Руководитель</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>Наша организация</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>Подразделение</t>
+  </si>
+  <si>
+    <t>Должность</t>
+  </si>
+  <si>
+    <t>Эл.почта</t>
+  </si>
+  <si>
+    <t>Краткое наименование</t>
+  </si>
+  <si>
+    <t>Юрид. наименование</t>
+  </si>
+  <si>
+    <t>Головное подразделение</t>
+  </si>
+  <si>
+    <t>Рабочий телефон</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Подробности</t>
+  </si>
+  <si>
+    <t>Нерезидент</t>
+  </si>
+  <si>
+    <t>Рога и Копыта</t>
+  </si>
+  <si>
+    <t>Бухгалтерия</t>
+  </si>
+  <si>
+    <t>Бухгалтер</t>
+  </si>
+  <si>
+    <t>Рогов</t>
+  </si>
+  <si>
+    <t>Василий</t>
+  </si>
+  <si>
+    <t>rogovv@comp.ru</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Мстители</t>
+  </si>
+  <si>
+    <t>ООО "MARVEL Inc."</t>
+  </si>
+  <si>
+    <t>Ironman</t>
+  </si>
+  <si>
+    <t>Старков</t>
+  </si>
+  <si>
+    <t>Антон</t>
+  </si>
+  <si>
+    <t>Говардович</t>
+  </si>
+  <si>
+    <t>ironman@avengers.us</t>
+  </si>
+  <si>
+    <t>ИД во внешней системе</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -709,6 +704,8 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -742,7 +739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -765,12 +762,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,17 +799,19 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1144,501 +1156,489 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:W3"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A3" sqref="A3"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <x:cols>
-    <x:col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <x:col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <x:col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <x:col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <x:col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
-    <x:col min="13" max="13" width="55.140625" bestFit="1" customWidth="1"/>
-    <x:col min="14" max="14" width="58.85546875" bestFit="1" customWidth="1"/>
-    <x:col min="15" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <x:col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <x:col min="18" max="19" width="17.140625" bestFit="1" customWidth="1"/>
-    <x:col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
-    <x:col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
-    <x:col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
-    <x:col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A1" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C1" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="F1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H1" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I1" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J1" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K1" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L1" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="M1" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="N1" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="O1" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P1" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="Q1" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="R1" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="S1" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="T1" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="U1" s="7" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="V1" s="7" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="W1" s="7" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <x:c r="A2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="U2" s="7" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="V2" s="7" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="W2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <x:c r="A3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="H3" s="6"/>
-      <x:c r="U3" s="7" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="V3" s="7" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="W3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:autoFilter ref="A1:W3"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <x:legacyDrawing r:id="rId2"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="55.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1796875" customWidth="1"/>
+    <col min="21" max="21" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:X3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:K8"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D3" sqref="D3"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <x:cols>
-    <x:col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="23.140625" customWidth="1"/>
-    <x:col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <x:col min="8" max="8" width="36.7109375" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A1" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B1" s="4" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C1" s="4" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D1" s="4" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E1" s="4" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F1" s="4" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G1" s="4" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H1" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I1" s="7" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="J1" s="7" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="K1" s="7" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <x:c r="A2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="I2" s="7" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="J2" s="7" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="K2" s="7" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <x:c r="A3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="I3" s="7" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="J3" s="7" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="K3" s="7" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <x:c r="I4" s="7"/>
-      <x:c r="J4" s="7"/>
-      <x:c r="K4" s="7"/>
-    </x:row>
-    <x:row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <x:c r="I5" s="7"/>
-      <x:c r="J5" s="7"/>
-      <x:c r="K5" s="7"/>
-    </x:row>
-    <x:row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <x:c r="I6" s="7"/>
-      <x:c r="J6" s="7"/>
-      <x:c r="K6" s="7"/>
-    </x:row>
-    <x:row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="I7" s="7"/>
-      <x:c r="J7" s="7"/>
-      <x:c r="K7" s="8"/>
-    </x:row>
-    <x:row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <x:c r="I8" s="7"/>
-      <x:c r="J8" s="7"/>
-      <x:c r="K8" s="7"/>
-    </x:row>
-  </x:sheetData>
-  <x:autoFilter ref="A1:K8"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <x:legacyDrawing r:id="rId2"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="8" max="8" width="31.26953125" customWidth="1"/>
+    <col min="9" max="9" width="27.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14" x14ac:dyDescent="0.4">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.4">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="14" x14ac:dyDescent="0.4">
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.4">
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:W15"/>
-  <x:sheetViews>
-    <x:sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <x:selection activeCell="A3" sqref="A3"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <x:cols>
-    <x:col min="1" max="1" width="23.140625" customWidth="1"/>
-    <x:col min="2" max="2" width="33.140625" customWidth="1"/>
-    <x:col min="3" max="3" width="42.42578125" customWidth="1"/>
-    <x:col min="4" max="4" width="18.140625" customWidth="1"/>
-    <x:col min="5" max="5" width="25" customWidth="1"/>
-    <x:col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <x:col min="7" max="7" width="14" customWidth="1"/>
-    <x:col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <x:col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <x:col min="10" max="10" width="19" customWidth="1"/>
-    <x:col min="11" max="11" width="21.42578125" customWidth="1"/>
-    <x:col min="12" max="12" width="21.140625" customWidth="1"/>
-    <x:col min="13" max="13" width="34.42578125" customWidth="1"/>
-    <x:col min="14" max="14" width="32.140625" customWidth="1"/>
-    <x:col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
-    <x:col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
-    <x:col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <x:col min="18" max="19" width="24.140625" customWidth="1"/>
-    <x:col min="20" max="20" width="21.42578125" bestFit="1" customWidth="1"/>
-    <x:col min="21" max="21" width="25.28515625" bestFit="1" customWidth="1"/>
-    <x:col min="22" max="22" width="19.28515625" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A1" s="4" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B1" s="9" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C1" s="4" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D1" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E1" s="9" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F1" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G1" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H1" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="K1" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L1" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="M1" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="N1" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="O1" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="P1" s="9" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="Q1" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="R1" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="S1" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="T1" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="U1" s="7" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="V1" s="7" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="W1" s="7" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <x:c r="A2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="P2" s="10" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="U2" s="7" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="V2" s="7" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="W2" s="7" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <x:c r="A3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E3" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="F3" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="P3" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="U3" s="7" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="V3" s="7" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="W3" s="7" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <x:c r="U4" s="7"/>
-      <x:c r="V4" s="7"/>
-      <x:c r="W4" s="7"/>
-    </x:row>
-    <x:row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <x:c r="U5" s="7"/>
-      <x:c r="V5" s="7"/>
-      <x:c r="W5" s="7"/>
-    </x:row>
-    <x:row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <x:c r="I6" s="6"/>
-      <x:c r="S6" s="6"/>
-      <x:c r="U6" s="7"/>
-      <x:c r="V6" s="7"/>
-      <x:c r="W6" s="7"/>
-    </x:row>
-    <x:row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <x:c r="U7" s="7"/>
-      <x:c r="V7" s="7"/>
-      <x:c r="W7" s="7"/>
-    </x:row>
-    <x:row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <x:c r="U8" s="7"/>
-      <x:c r="V8" s="7"/>
-      <x:c r="W8" s="7"/>
-    </x:row>
-    <x:row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <x:c r="U9" s="7"/>
-      <x:c r="V9" s="7"/>
-      <x:c r="W9" s="7"/>
-    </x:row>
-    <x:row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <x:c r="U10" s="7"/>
-      <x:c r="V10" s="7"/>
-      <x:c r="W10" s="7"/>
-    </x:row>
-    <x:row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <x:c r="U11" s="7"/>
-      <x:c r="V11" s="7"/>
-      <x:c r="W11" s="7"/>
-    </x:row>
-    <x:row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <x:c r="U12" s="7"/>
-      <x:c r="V12" s="7"/>
-      <x:c r="W12" s="7"/>
-    </x:row>
-    <x:row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <x:c r="U13" s="7"/>
-      <x:c r="V13" s="7"/>
-      <x:c r="W13" s="7"/>
-    </x:row>
-    <x:row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <x:c r="U14" s="7"/>
-      <x:c r="V14" s="7"/>
-      <x:c r="W14" s="7"/>
-    </x:row>
-    <x:row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <x:c r="U15" s="7"/>
-      <x:c r="V15" s="7"/>
-      <x:c r="W15" s="7"/>
-    </x:row>
-  </x:sheetData>
-  <x:autoFilter ref="B1:W16"/>
-  <x:hyperlinks>
-    <x:hyperlink ref="P2" r:id="rId1"/>
-  </x:hyperlinks>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <x:legacyDrawing r:id="rId3"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:X15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="25.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" customWidth="1"/>
+    <col min="9" max="9" width="19.453125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="21.453125" customWidth="1"/>
+    <col min="12" max="12" width="21.1796875" customWidth="1"/>
+    <col min="13" max="13" width="34.453125" customWidth="1"/>
+    <col min="14" max="14" width="32.1796875" customWidth="1"/>
+    <col min="15" max="15" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="24.1796875" customWidth="1"/>
+    <col min="21" max="21" width="25.26953125" customWidth="1"/>
+    <col min="22" max="22" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+    </row>
+    <row r="5" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+    </row>
+    <row r="6" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="I6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+    </row>
+    <row r="7" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+    </row>
+    <row r="9" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+    </row>
+    <row r="10" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+    </row>
+    <row r="11" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+    </row>
+    <row r="12" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+    </row>
+    <row r="13" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+    </row>
+    <row r="14" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+    </row>
+    <row r="15" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:X16" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>